--- a/Resultados/P_3.xlsx
+++ b/Resultados/P_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,243 +77,219 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.23040837608389725</v>
+        <v>1.9327734804367327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.25817464830308162</v>
+        <v>0.28297905275533219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.22159408809254236</v>
+        <v>0.28397587043021777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.23381342294254701</v>
+        <v>0.23736901081974887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12132074692654569</v>
+        <v>0.37705669145058957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.15080587659332984</v>
+        <v>0.53640247085600967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12624723758726641</v>
+        <v>0.04772558997001751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.13560041593787542</v>
+        <v>0.042969645829012554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.15361796181326481</v>
+        <v>0.34021896755577363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.12619682870104271</v>
+        <v>0.082578839711660579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.14725143498937621</v>
+        <v>0.036320694697529417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.12047333845028876</v>
+        <v>0.057753508428139574</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.085409483040726417</v>
+        <v>0.14957374166841256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.097906369370643204</v>
+        <v>0.12856530690751494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.06137841779771179</v>
+        <v>0.026574544615763737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.063589989306511899</v>
+        <v>0.024418226494695747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.067545367680580379</v>
+        <v>0.039793659443267113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.21844693729380207</v>
+        <v>0.089054594464419101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.37964694749303896</v>
+        <v>0.030628525800104736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.16816304674825128</v>
+        <v>0.20715953579183183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.047569588819669439</v>
+        <v>0.051674066167248414</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.08159227384997772</v>
+        <v>0.052247601353370199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.036430714540701771</v>
+        <v>0.022070948933068706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.033973021415472066</v>
+        <v>0.019029663772374819</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1.0013447077927184</v>
+        <v>0.034986330358186983</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.23729275545198264</v>
+        <v>0.025285300622350806</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.073977315767348006</v>
+        <v>0.023987943299002577</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.13685573937751547</v>
+        <v>0.024882852522409689</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.22926046191015098</v>
+        <v>0.026901748628087821</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.21377095512445393</v>
+        <v>0.027910698042212755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.058081999567719679</v>
+        <v>0.023900907932361277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.038932194678982346</v>
+        <v>0.021894494487222107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.13765175860062154</v>
+        <v>0.035102059440197855</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.078143483943860295</v>
+        <v>0.024797918879168952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.022559167004522859</v>
+        <v>0.030839523579931267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.078598138073109433</v>
+        <v>0.025042284311205535</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>0.11100551233312332</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>0.11803263929013935</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>0.053722299381902629</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>0.04208673063291226</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>0.070110734841661901</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>0.076775784184015691</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>0.049690914171729786</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>0.039544665625019432</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>0.045781836734000297</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>0.055231531314228893</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>0.037174818690609325</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>0.017488921555535501</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>
